--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1472.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1472.xlsx
@@ -357,7 +357,7 @@
         <v>2.454433633354369</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.341614822640199</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1472.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1472.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.256685877071148</v>
+        <v>1.118126630783081</v>
       </c>
       <c r="B1">
-        <v>1.612191387862224</v>
+        <v>3.592410326004028</v>
       </c>
       <c r="C1">
-        <v>2.454433633354369</v>
+        <v>3.270452499389648</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.662342309951782</v>
       </c>
       <c r="E1">
-        <v>1.341614822640199</v>
+        <v>1.067794442176819</v>
       </c>
     </row>
   </sheetData>
